--- a/Saved_file/EM003/2026_09/sap_data.xlsx
+++ b/Saved_file/EM003/2026_09/sap_data.xlsx
@@ -492,29 +492,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-09-10</t>
+          <t>2026-09-17</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CUST6247</t>
+          <t>CUST6374</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>22970238</v>
+        <v>36808789</v>
       </c>
       <c r="E2" t="n">
-        <v>5741734</v>
+        <v>6470903</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -534,7 +534,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -546,25 +546,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-09-29</t>
+          <t>2026-09-22</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUST2250</t>
+          <t>CUST7364</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>25879816</v>
+        <v>18638590</v>
       </c>
       <c r="E3" t="n">
-        <v>5924428</v>
+        <v>4181746</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -578,7 +578,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -588,7 +588,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -600,25 +600,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-09-13</t>
+          <t>2026-09-01</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CUST1949</t>
+          <t>CUST4670</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>28932350</v>
+        <v>26221736</v>
       </c>
       <c r="E4" t="n">
-        <v>6455570</v>
+        <v>6359913</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -637,12 +637,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -654,29 +654,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-09-02</t>
+          <t>2026-09-05</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CUST2250</t>
+          <t>CUST4213</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>37023718</v>
+        <v>21985022</v>
       </c>
       <c r="E5" t="n">
-        <v>7893845</v>
+        <v>3717636</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -708,29 +708,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2026-09-03</t>
+          <t>2026-09-23</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CUST5499</t>
+          <t>CUST6374</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>23674863</v>
+        <v>21951611</v>
       </c>
       <c r="E6" t="n">
-        <v>5002414</v>
+        <v>3877615</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -762,29 +762,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-09-11</t>
+          <t>2026-09-19</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CUST8039</t>
+          <t>CUST5616</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>31093693</v>
+        <v>34566825</v>
       </c>
       <c r="E7" t="n">
-        <v>6704554</v>
+        <v>8028643</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -794,17 +794,17 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -816,29 +816,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-09-07</t>
+          <t>2026-09-28</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CUST8417</t>
+          <t>CUST1266</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>23167486</v>
+        <v>36111671</v>
       </c>
       <c r="E8" t="n">
-        <v>4175721</v>
+        <v>5950012</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -870,25 +870,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-09-18</t>
+          <t>2026-09-30</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CUST4534</t>
+          <t>CUST3240</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>29796101</v>
+        <v>35621632</v>
       </c>
       <c r="E9" t="n">
-        <v>6657799</v>
+        <v>7145253</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -902,17 +902,17 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -924,29 +924,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-09-28</t>
+          <t>2026-09-14</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CUST2320</t>
+          <t>CUST9614</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>31387235</v>
+        <v>22731274</v>
       </c>
       <c r="E10" t="n">
-        <v>6508178</v>
+        <v>5574415</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>173</v>
+        <v>46</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -961,12 +961,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -978,29 +978,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-09-15</t>
+          <t>2026-09-08</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CUST2057</t>
+          <t>CUST1243</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>20970011</v>
+        <v>21921700</v>
       </c>
       <c r="E11" t="n">
-        <v>3349481</v>
+        <v>4802168</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1010,17 +1010,17 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1032,25 +1032,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-09-24</t>
+          <t>2026-09-11</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CUST6247</t>
+          <t>CUST1245</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>32934744</v>
+        <v>22816043</v>
       </c>
       <c r="E12" t="n">
-        <v>6395441</v>
+        <v>3899330</v>
       </c>
       <c r="F12" t="n">
         <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1064,12 +1064,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1086,25 +1086,25 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-09-24</t>
+          <t>2026-09-17</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CUST4303</t>
+          <t>CUST3240</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>28490882</v>
+        <v>17863875</v>
       </c>
       <c r="E13" t="n">
-        <v>6556795</v>
+        <v>3266507</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1118,17 +1118,17 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-09-10</t>
+          <t>2026-09-05</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CUST2798</t>
+          <t>CUST6126</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>32139604</v>
+        <v>34513771</v>
       </c>
       <c r="E14" t="n">
-        <v>6394838</v>
+        <v>7378876</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1194,29 +1194,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-09-14</t>
+          <t>2026-09-24</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CUST3548</t>
+          <t>CUST8254</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>21333335</v>
+        <v>34644445</v>
       </c>
       <c r="E15" t="n">
-        <v>4999465</v>
+        <v>5963973</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1226,12 +1226,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1248,29 +1248,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-09-11</t>
+          <t>2026-09-22</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CUST3140</t>
+          <t>CUST9386</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>23257549</v>
+        <v>15663913</v>
       </c>
       <c r="E16" t="n">
-        <v>5664343</v>
+        <v>3034384</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1302,25 +1302,25 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-09-22</t>
+          <t>2026-09-26</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CUST3389</t>
+          <t>CUST9038</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>28741682</v>
+        <v>27802229</v>
       </c>
       <c r="E17" t="n">
-        <v>5442036</v>
+        <v>6116844</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1356,25 +1356,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-09-30</t>
+          <t>2026-09-29</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CUST4303</t>
+          <t>CUST6417</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>26607126</v>
+        <v>25329578</v>
       </c>
       <c r="E18" t="n">
-        <v>4585236</v>
+        <v>5135254</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1388,17 +1388,17 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1410,25 +1410,25 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-09-30</t>
+          <t>2026-09-10</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CUST9632</t>
+          <t>CUST5521</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>22877992</v>
+        <v>29121379</v>
       </c>
       <c r="E19" t="n">
-        <v>3559987</v>
+        <v>5599038</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1442,17 +1442,17 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1464,29 +1464,29 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-09-09</t>
+          <t>2026-09-26</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CUST4210</t>
+          <t>CUST6374</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>35486017</v>
+        <v>36258438</v>
       </c>
       <c r="E20" t="n">
-        <v>6540902</v>
+        <v>7746283</v>
       </c>
       <c r="F20" t="n">
         <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1496,17 +1496,17 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1518,25 +1518,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-09-02</t>
+          <t>2026-09-18</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUST3140</t>
+          <t>CUST4027</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>31443906</v>
+        <v>34234786</v>
       </c>
       <c r="E21" t="n">
-        <v>5635597</v>
+        <v>6104270</v>
       </c>
       <c r="F21" t="n">
         <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1572,29 +1572,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-09-27</t>
+          <t>2026-09-13</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CUST5499</t>
+          <t>CUST5616</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>26504340</v>
+        <v>28495327</v>
       </c>
       <c r="E22" t="n">
-        <v>5704279</v>
+        <v>5142217</v>
       </c>
       <c r="F22" t="n">
         <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1626,29 +1626,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-09-17</t>
+          <t>2026-09-19</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CUST6535</t>
+          <t>CUST3918</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>21285943</v>
+        <v>37891591</v>
       </c>
       <c r="E23" t="n">
-        <v>3553806</v>
+        <v>9111002</v>
       </c>
       <c r="F23" t="n">
         <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>174</v>
+        <v>46</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1658,17 +1658,17 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1680,25 +1680,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-09-06</t>
+          <t>2026-09-22</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CUST5902</t>
+          <t>CUST7527</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>25838727</v>
+        <v>32446425</v>
       </c>
       <c r="E24" t="n">
-        <v>5336902</v>
+        <v>4876337</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1739,24 +1739,24 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CUST1473</t>
+          <t>CUST9048</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>38817918</v>
+        <v>21719293</v>
       </c>
       <c r="E25" t="n">
-        <v>6312692</v>
+        <v>5214239</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1766,17 +1766,17 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1788,29 +1788,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-09-21</t>
+          <t>2026-09-18</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CUST3548</t>
+          <t>CUST4670</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>22635289</v>
+        <v>25518414</v>
       </c>
       <c r="E26" t="n">
-        <v>4008609</v>
+        <v>5014743</v>
       </c>
       <c r="F26" t="n">
         <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CUST3985</t>
+          <t>CUST6049</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>20713992</v>
+        <v>19753580</v>
       </c>
       <c r="E27" t="n">
-        <v>4404113</v>
+        <v>3155845</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1874,17 +1874,17 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1896,29 +1896,29 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-09-11</t>
+          <t>2026-09-04</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CUST2798</t>
+          <t>CUST7385</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>21899133</v>
+        <v>38070456</v>
       </c>
       <c r="E28" t="n">
-        <v>4007723</v>
+        <v>7672409</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1928,17 +1928,17 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1950,25 +1950,25 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-09-05</t>
+          <t>2026-09-16</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUST8416</t>
+          <t>CUST7364</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>28222151</v>
+        <v>18569461</v>
       </c>
       <c r="E29" t="n">
-        <v>6013944</v>
+        <v>3978024</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1982,12 +1982,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2004,29 +2004,29 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2026-09-22</t>
+          <t>2026-09-07</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUST2057</t>
+          <t>CUST5033</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>15398802</v>
+        <v>35762712</v>
       </c>
       <c r="E30" t="n">
-        <v>3017085</v>
+        <v>6812274</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
-        <v>26</v>
+        <v>142</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2036,17 +2036,17 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2058,29 +2058,29 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2026-09-10</t>
+          <t>2026-09-13</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CUST9618</t>
+          <t>CUST4517</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>37306208</v>
+        <v>30830694</v>
       </c>
       <c r="E31" t="n">
-        <v>8623245</v>
+        <v>7283700</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2090,17 +2090,17 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2112,25 +2112,25 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-09-11</t>
+          <t>2026-09-28</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CUST2057</t>
+          <t>CUST9038</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>37955983</v>
+        <v>18395990</v>
       </c>
       <c r="E32" t="n">
-        <v>6294764</v>
+        <v>4211875</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2166,25 +2166,25 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-09-06</t>
+          <t>2026-09-15</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CUST4949</t>
+          <t>CUST9614</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>28191047</v>
+        <v>16564484</v>
       </c>
       <c r="E33" t="n">
-        <v>6162659</v>
+        <v>3380266</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2198,17 +2198,17 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2220,25 +2220,25 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-09-30</t>
+          <t>2026-09-23</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CUST3985</t>
+          <t>CUST7468</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>35030333</v>
+        <v>19709896</v>
       </c>
       <c r="E34" t="n">
-        <v>7117512</v>
+        <v>4393405</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2252,17 +2252,17 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2274,29 +2274,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-09-27</t>
+          <t>2026-09-24</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CUST8416</t>
+          <t>CUST7385</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>23701430</v>
+        <v>20317897</v>
       </c>
       <c r="E35" t="n">
-        <v>3917562</v>
+        <v>3458162</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>49</v>
+        <v>165</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2306,17 +2306,17 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2328,29 +2328,29 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-09-09</t>
+          <t>2026-09-27</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CUST2250</t>
+          <t>CUST7727</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>30043890</v>
+        <v>15408538</v>
       </c>
       <c r="E36" t="n">
-        <v>6462899</v>
+        <v>2985795</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G36" t="n">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2360,12 +2360,12 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2382,29 +2382,29 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-09-29</t>
+          <t>2026-09-01</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CUST3140</t>
+          <t>CUST8365</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>23186016</v>
+        <v>39477645</v>
       </c>
       <c r="E37" t="n">
-        <v>4142859</v>
+        <v>8063679</v>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2419,12 +2419,12 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2436,29 +2436,29 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-09-01</t>
+          <t>2026-09-03</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CUST2320</t>
+          <t>CUST1266</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>17746339</v>
+        <v>37671035</v>
       </c>
       <c r="E38" t="n">
-        <v>3986178</v>
+        <v>6941899</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G38" t="n">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2478,7 +2478,7 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2490,25 +2490,25 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2026-09-09</t>
+          <t>2026-09-27</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CUST1384</t>
+          <t>CUST6763</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>23794220</v>
+        <v>15355390</v>
       </c>
       <c r="E39" t="n">
-        <v>4070757</v>
+        <v>2535739</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G39" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -2527,12 +2527,12 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2544,29 +2544,29 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2026-09-28</t>
+          <t>2026-09-04</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CUST3985</t>
+          <t>CUST3240</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>35276386</v>
+        <v>32213055</v>
       </c>
       <c r="E40" t="n">
-        <v>6813020</v>
+        <v>7763890</v>
       </c>
       <c r="F40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G40" t="n">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2581,12 +2581,12 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2598,25 +2598,25 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2026-09-03</t>
+          <t>2026-09-13</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CUST3585</t>
+          <t>CUST7188</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>28606765</v>
+        <v>26353163</v>
       </c>
       <c r="E41" t="n">
-        <v>4666415</v>
+        <v>5753225</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G41" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -2630,7 +2630,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2640,7 +2640,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2652,29 +2652,29 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2026-09-02</t>
+          <t>2026-09-24</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CUST8416</t>
+          <t>CUST1134</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>20061683</v>
+        <v>34766983</v>
       </c>
       <c r="E42" t="n">
-        <v>3419404</v>
+        <v>7383113</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G42" t="n">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2706,29 +2706,29 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2026-09-04</t>
+          <t>2026-09-17</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CUST3585</t>
+          <t>CUST7364</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>22190084</v>
+        <v>27165818</v>
       </c>
       <c r="E43" t="n">
-        <v>4366978</v>
+        <v>5612843</v>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2743,12 +2743,12 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2760,25 +2760,25 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2026-09-30</t>
+          <t>2026-09-21</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CUST8039</t>
+          <t>CUST9614</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>30945111</v>
+        <v>30366465</v>
       </c>
       <c r="E44" t="n">
-        <v>5464822</v>
+        <v>7122424</v>
       </c>
       <c r="F44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -2792,12 +2792,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -2814,29 +2814,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2026-09-18</t>
+          <t>2026-09-01</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CUST4210</t>
+          <t>CUST6126</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>16699278</v>
+        <v>35061923</v>
       </c>
       <c r="E45" t="n">
-        <v>3250228</v>
+        <v>8628857</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45" t="n">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2846,12 +2846,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -2868,25 +2868,25 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2026-09-13</t>
+          <t>2026-09-28</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CUST9632</t>
+          <t>CUST1245</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>26605508</v>
+        <v>23991552</v>
       </c>
       <c r="E46" t="n">
-        <v>4203291</v>
+        <v>4543915</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2900,17 +2900,17 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2922,29 +2922,29 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2026-09-27</t>
+          <t>2026-09-03</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CUST9495</t>
+          <t>CUST9386</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>24998932</v>
+        <v>25034635</v>
       </c>
       <c r="E47" t="n">
-        <v>4891139</v>
+        <v>5033306</v>
       </c>
       <c r="F47" t="n">
         <v>3</v>
       </c>
       <c r="G47" t="n">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2954,12 +2954,12 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -2976,29 +2976,29 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2026-09-09</t>
+          <t>2026-09-15</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CUST8369</t>
+          <t>CUST3918</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>29936877</v>
+        <v>19461605</v>
       </c>
       <c r="E48" t="n">
-        <v>7130071</v>
+        <v>3198542</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3008,17 +3008,17 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3030,25 +3030,25 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2026-09-16</t>
+          <t>2026-09-29</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CUST9590</t>
+          <t>CUST3220</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>22493335</v>
+        <v>31170732</v>
       </c>
       <c r="E49" t="n">
-        <v>3805565</v>
+        <v>7607933</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G49" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -3062,17 +3062,17 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3084,29 +3084,29 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2026-09-04</t>
+          <t>2026-09-06</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CUST1776</t>
+          <t>CUST7727</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>28566059</v>
+        <v>28274498</v>
       </c>
       <c r="E50" t="n">
-        <v>6358714</v>
+        <v>6211817</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3116,17 +3116,17 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3138,25 +3138,25 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2026-09-03</t>
+          <t>2026-09-30</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CUST6535</t>
+          <t>CUST7727</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>37612428</v>
+        <v>15782414</v>
       </c>
       <c r="E51" t="n">
-        <v>6490148</v>
+        <v>2413895</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3192,25 +3192,25 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2026-09-23</t>
+          <t>2026-09-19</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CUST6683</t>
+          <t>CUST6374</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>38880247</v>
+        <v>27248585</v>
       </c>
       <c r="E52" t="n">
-        <v>9169017</v>
+        <v>5167280</v>
       </c>
       <c r="F52" t="n">
         <v>2</v>
       </c>
       <c r="G52" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -3224,12 +3224,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3246,25 +3246,25 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2026-09-13</t>
+          <t>2026-09-14</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CUST1056</t>
+          <t>CUST9226</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>15724666</v>
+        <v>20188899</v>
       </c>
       <c r="E53" t="n">
-        <v>3062013</v>
+        <v>4506640</v>
       </c>
       <c r="F53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G53" t="n">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -3278,17 +3278,17 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3300,25 +3300,25 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2026-09-05</t>
+          <t>2026-09-22</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CUST8369</t>
+          <t>CUST1266</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>19047816</v>
+        <v>17918442</v>
       </c>
       <c r="E54" t="n">
-        <v>3348114</v>
+        <v>2957938</v>
       </c>
       <c r="F54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -3332,17 +3332,17 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3354,25 +3354,25 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-09-20</t>
+          <t>2026-09-14</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CUST3389</t>
+          <t>CUST4931</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>39596852</v>
+        <v>34690266</v>
       </c>
       <c r="E55" t="n">
-        <v>6299782</v>
+        <v>6387116</v>
       </c>
       <c r="F55" t="n">
         <v>2</v>
       </c>
       <c r="G55" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3408,29 +3408,29 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2026-09-06</t>
+          <t>2026-09-17</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CUST2250</t>
+          <t>CUST6374</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>30617407</v>
+        <v>31116337</v>
       </c>
       <c r="E56" t="n">
-        <v>4662986</v>
+        <v>5526610</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G56" t="n">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3462,29 +3462,29 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2026-09-22</t>
+          <t>2026-09-12</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CUST5966</t>
+          <t>CUST9226</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>23047307</v>
+        <v>35463011</v>
       </c>
       <c r="E57" t="n">
-        <v>5094944</v>
+        <v>6491816</v>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3494,17 +3494,17 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3516,29 +3516,29 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2026-09-10</t>
+          <t>2026-09-15</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CUST9590</t>
+          <t>CUST6126</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>39008680</v>
+        <v>28858614</v>
       </c>
       <c r="E58" t="n">
-        <v>9131360</v>
+        <v>5781941</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3548,17 +3548,17 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3570,29 +3570,29 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2026-09-02</t>
+          <t>2026-09-14</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CUST3046</t>
+          <t>CUST6049</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>22378909</v>
+        <v>21020950</v>
       </c>
       <c r="E59" t="n">
-        <v>4241600</v>
+        <v>3582869</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3602,12 +3602,12 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -3624,25 +3624,25 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2026-09-13</t>
+          <t>2026-09-30</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CUST7262</t>
+          <t>CUST6417</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>36264184</v>
+        <v>34164280</v>
       </c>
       <c r="E60" t="n">
-        <v>6385856</v>
+        <v>8296636</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G60" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -3656,17 +3656,17 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3678,29 +3678,29 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2026-09-11</t>
+          <t>2026-09-29</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CUST7286</t>
+          <t>CUST3897</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>21940217</v>
+        <v>38389048</v>
       </c>
       <c r="E61" t="n">
-        <v>4432720</v>
+        <v>8529892</v>
       </c>
       <c r="F61" t="n">
         <v>2</v>
       </c>
       <c r="G61" t="n">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3720,7 +3720,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3732,29 +3732,29 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2026-09-29</t>
+          <t>2026-09-11</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CUST2506</t>
+          <t>CUST5521</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>34169042</v>
+        <v>37938102</v>
       </c>
       <c r="E62" t="n">
-        <v>6602357</v>
+        <v>6736501</v>
       </c>
       <c r="F62" t="n">
         <v>2</v>
       </c>
       <c r="G62" t="n">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -3786,29 +3786,29 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2026-09-10</t>
+          <t>2026-09-09</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CUST8369</t>
+          <t>CUST1245</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>24551978</v>
+        <v>23130502</v>
       </c>
       <c r="E63" t="n">
-        <v>4604736</v>
+        <v>4571210</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3818,7 +3818,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3840,29 +3840,29 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2026-09-16</t>
+          <t>2026-09-08</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CUST5902</t>
+          <t>CUST6374</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>27942078</v>
+        <v>16393180</v>
       </c>
       <c r="E64" t="n">
-        <v>5361562</v>
+        <v>3961394</v>
       </c>
       <c r="F64" t="n">
         <v>2</v>
       </c>
       <c r="G64" t="n">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3872,17 +3872,17 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3894,29 +3894,29 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2026-09-21</t>
+          <t>2026-09-30</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CUST9495</t>
+          <t>CUST7468</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>19438381</v>
+        <v>27640022</v>
       </c>
       <c r="E65" t="n">
-        <v>4746911</v>
+        <v>4352237</v>
       </c>
       <c r="F65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3926,7 +3926,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -3936,7 +3936,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3948,25 +3948,25 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2026-09-24</t>
+          <t>2026-09-17</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CUST5499</t>
+          <t>CUST5521</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>28551951</v>
+        <v>27399228</v>
       </c>
       <c r="E66" t="n">
-        <v>6298422</v>
+        <v>6750337</v>
       </c>
       <c r="F66" t="n">
         <v>3</v>
       </c>
       <c r="G66" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4002,25 +4002,25 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2026-09-11</t>
+          <t>2026-09-09</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CUST4759</t>
+          <t>CUST7468</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>25051649</v>
+        <v>17818245</v>
       </c>
       <c r="E67" t="n">
-        <v>4242471</v>
+        <v>2974996</v>
       </c>
       <c r="F67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -4034,12 +4034,12 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4056,25 +4056,25 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2026-09-21</t>
+          <t>2026-09-04</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CUST9590</t>
+          <t>CUST7527</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>37004292</v>
+        <v>19330269</v>
       </c>
       <c r="E68" t="n">
-        <v>8446167</v>
+        <v>4589896</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -4088,17 +4088,17 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4110,29 +4110,29 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2026-09-09</t>
+          <t>2026-09-06</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CUST3140</t>
+          <t>CUST7468</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>33963311</v>
+        <v>16177302</v>
       </c>
       <c r="E69" t="n">
-        <v>6735106</v>
+        <v>2846800</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4142,7 +4142,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4164,29 +4164,29 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2026-09-24</t>
+          <t>2026-09-15</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CUST1776</t>
+          <t>CUST6126</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>35073571</v>
+        <v>29306847</v>
       </c>
       <c r="E70" t="n">
-        <v>7322503</v>
+        <v>5373017</v>
       </c>
       <c r="F70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G70" t="n">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4196,17 +4196,17 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4218,29 +4218,29 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2026-09-01</t>
+          <t>2026-09-12</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CUST1675</t>
+          <t>CUST4517</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>34367977</v>
+        <v>15393331</v>
       </c>
       <c r="E71" t="n">
-        <v>7788937</v>
+        <v>2919715</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4250,17 +4250,17 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4272,29 +4272,29 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2026-09-26</t>
+          <t>2026-09-29</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CUST9645</t>
+          <t>CUST7468</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>17493740</v>
+        <v>21638320</v>
       </c>
       <c r="E72" t="n">
-        <v>3486267</v>
+        <v>4216841</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G72" t="n">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4326,29 +4326,29 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2026-09-17</t>
+          <t>2026-09-29</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CUST3046</t>
+          <t>CUST9108</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>27269534</v>
+        <v>16938745</v>
       </c>
       <c r="E73" t="n">
-        <v>5776783</v>
+        <v>3340633</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G73" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4368,7 +4368,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4380,25 +4380,25 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2026-09-26</t>
+          <t>2026-09-07</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CUST9607</t>
+          <t>CUST8735</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>24136205</v>
+        <v>29559349</v>
       </c>
       <c r="E74" t="n">
-        <v>6027854</v>
+        <v>6132847</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -4434,29 +4434,29 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2026-09-12</t>
+          <t>2026-09-16</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CUST1056</t>
+          <t>CUST9039</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>37866733</v>
+        <v>23406479</v>
       </c>
       <c r="E75" t="n">
-        <v>8635475</v>
+        <v>4801818</v>
       </c>
       <c r="F75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4471,12 +4471,12 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4488,25 +4488,25 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2026-09-30</t>
+          <t>2026-09-13</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CUST6852</t>
+          <t>CUST9226</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>33610881</v>
+        <v>31944126</v>
       </c>
       <c r="E76" t="n">
-        <v>7889338</v>
+        <v>6100925</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -4520,17 +4520,17 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4542,29 +4542,29 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2026-09-17</t>
+          <t>2026-09-04</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CUST3389</t>
+          <t>CUST1243</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>22347311</v>
+        <v>25337734</v>
       </c>
       <c r="E77" t="n">
-        <v>5316143</v>
+        <v>4141073</v>
       </c>
       <c r="F77" t="n">
         <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4574,17 +4574,17 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4596,29 +4596,29 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2026-09-07</t>
+          <t>2026-09-13</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CUST1473</t>
+          <t>CUST1243</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>38469268</v>
+        <v>29084289</v>
       </c>
       <c r="E78" t="n">
-        <v>9370455</v>
+        <v>6333361</v>
       </c>
       <c r="F78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>176</v>
+        <v>13</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4628,12 +4628,12 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -4650,25 +4650,25 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2026-09-13</t>
+          <t>2026-09-23</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CUST3585</t>
+          <t>CUST8365</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>39769698</v>
+        <v>15360979</v>
       </c>
       <c r="E79" t="n">
-        <v>8270107</v>
+        <v>3177839</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G79" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4704,25 +4704,25 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2026-09-25</t>
+          <t>2026-09-09</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CUST4210</t>
+          <t>CUST1243</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>21325069</v>
+        <v>35309449</v>
       </c>
       <c r="E80" t="n">
-        <v>4127826</v>
+        <v>7597022</v>
       </c>
       <c r="F80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G80" t="n">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -4741,12 +4741,12 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4758,25 +4758,25 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2026-09-19</t>
+          <t>2026-09-16</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CUST7152</t>
+          <t>CUST4993</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>37792828</v>
+        <v>34640027</v>
       </c>
       <c r="E81" t="n">
-        <v>6689983</v>
+        <v>8449643</v>
       </c>
       <c r="F81" t="n">
         <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -4790,17 +4790,17 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4812,29 +4812,29 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2026-09-18</t>
+          <t>2026-09-05</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CUST3140</t>
+          <t>CUST1266</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>23764477</v>
+        <v>37818982</v>
       </c>
       <c r="E82" t="n">
-        <v>5682915</v>
+        <v>9201142</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G82" t="n">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4844,17 +4844,17 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4866,29 +4866,29 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2026-09-18</t>
+          <t>2026-09-15</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CUST9645</t>
+          <t>CUST1243</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>24261531</v>
+        <v>36934908</v>
       </c>
       <c r="E83" t="n">
-        <v>4059398</v>
+        <v>9166736</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4898,7 +4898,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -4908,7 +4908,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4920,29 +4920,29 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2026-09-26</t>
+          <t>2026-09-09</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CUST6535</t>
+          <t>CUST7527</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>24349062</v>
+        <v>36971377</v>
       </c>
       <c r="E84" t="n">
-        <v>4269007</v>
+        <v>8440812</v>
       </c>
       <c r="F84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4957,12 +4957,12 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4974,29 +4974,29 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2026-09-16</t>
+          <t>2026-09-20</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CUST6852</t>
+          <t>CUST3085</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>22160321</v>
+        <v>24613403</v>
       </c>
       <c r="E85" t="n">
-        <v>3876105</v>
+        <v>4338205</v>
       </c>
       <c r="F85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>174</v>
+        <v>48</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5006,17 +5006,17 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5028,29 +5028,29 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2026-09-16</t>
+          <t>2026-09-28</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CUST5966</t>
+          <t>CUST6763</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>20862140</v>
+        <v>33549877</v>
       </c>
       <c r="E86" t="n">
-        <v>3262145</v>
+        <v>8062338</v>
       </c>
       <c r="F86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>20</v>
+        <v>157</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5060,17 +5060,17 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5082,29 +5082,29 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2026-09-10</t>
+          <t>2026-09-03</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>CUST1776</t>
+          <t>CUST7727</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>18756123</v>
+        <v>25327722</v>
       </c>
       <c r="E87" t="n">
-        <v>4586758</v>
+        <v>5668352</v>
       </c>
       <c r="F87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G87" t="n">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5136,25 +5136,25 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2026-09-14</t>
+          <t>2026-09-12</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>CUST8416</t>
+          <t>CUST1016</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>17885741</v>
+        <v>38191731</v>
       </c>
       <c r="E88" t="n">
-        <v>2936569</v>
+        <v>5817410</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G88" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5190,25 +5190,25 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2026-09-22</t>
+          <t>2026-09-26</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CUST1949</t>
+          <t>CUST8735</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>17814533</v>
+        <v>25256668</v>
       </c>
       <c r="E89" t="n">
-        <v>3502975</v>
+        <v>5175458</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G89" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -5222,17 +5222,17 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5249,20 +5249,20 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CUST1384</t>
+          <t>CUST6126</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>21313676</v>
+        <v>19244811</v>
       </c>
       <c r="E90" t="n">
-        <v>3923500</v>
+        <v>3714089</v>
       </c>
       <c r="F90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -5298,29 +5298,29 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2026-09-30</t>
+          <t>2026-09-14</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CUST2250</t>
+          <t>CUST5157</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>28372129</v>
+        <v>17062072</v>
       </c>
       <c r="E91" t="n">
-        <v>5491092</v>
+        <v>2931997</v>
       </c>
       <c r="F91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G91" t="n">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5330,12 +5330,12 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>6086689</v>
+        <v>13744017</v>
       </c>
       <c r="E2" t="n">
-        <v>1617651</v>
+        <v>3529788</v>
       </c>
     </row>
     <row r="3">
@@ -5416,16 +5416,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89.3</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>7288637</v>
+        <v>4742943</v>
       </c>
       <c r="E3" t="n">
-        <v>1099406</v>
+        <v>1176534</v>
       </c>
     </row>
     <row r="4">
@@ -5435,16 +5435,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>76.8</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>3951514</v>
+        <v>12878607</v>
       </c>
       <c r="E4" t="n">
-        <v>874512</v>
+        <v>2359346</v>
       </c>
     </row>
     <row r="5">
@@ -5454,16 +5454,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82.40000000000001</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>11806092</v>
+        <v>4678943</v>
       </c>
       <c r="E5" t="n">
-        <v>2938960</v>
+        <v>637157</v>
       </c>
     </row>
     <row r="6">
@@ -5511,16 +5511,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>75.8</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>4764976</v>
+        <v>6386279</v>
       </c>
       <c r="E8" t="n">
-        <v>1242405</v>
+        <v>927645</v>
       </c>
     </row>
     <row r="9">
@@ -5530,16 +5530,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>81.7</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>7187650</v>
+        <v>2864978</v>
       </c>
       <c r="E9" t="n">
-        <v>1609590</v>
+        <v>335536</v>
       </c>
     </row>
     <row r="10">
@@ -5549,16 +5549,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>83.8</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>16301897</v>
+        <v>11725502</v>
       </c>
       <c r="E10" t="n">
-        <v>3249073</v>
+        <v>2311507</v>
       </c>
     </row>
     <row r="11">
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>83.8</v>
+        <v>89.8</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>5101430</v>
+        <v>4355927</v>
       </c>
       <c r="E11" t="n">
-        <v>1425296</v>
+        <v>496142</v>
       </c>
     </row>
     <row r="12">
@@ -5587,16 +5587,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>87.90000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>12030983</v>
+        <v>6381953</v>
       </c>
       <c r="E12" t="n">
-        <v>3115446</v>
+        <v>1781047</v>
       </c>
     </row>
     <row r="13">
@@ -5606,16 +5606,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>68.09999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>4093218</v>
+        <v>5252044</v>
       </c>
       <c r="E13" t="n">
-        <v>1111402</v>
+        <v>668121</v>
       </c>
     </row>
     <row r="14">
@@ -5644,16 +5644,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>77.59999999999999</v>
+        <v>79.2</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>6186850</v>
+        <v>17263613</v>
       </c>
       <c r="E15" t="n">
-        <v>1390995</v>
+        <v>5016084</v>
       </c>
     </row>
     <row r="16">
@@ -5663,16 +5663,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>87.59999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>2763275</v>
+        <v>8203301</v>
       </c>
       <c r="E16" t="n">
-        <v>496761</v>
+        <v>1966804</v>
       </c>
     </row>
     <row r="17">
@@ -5682,16 +5682,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>79.2</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>10534196</v>
+        <v>3365167</v>
       </c>
       <c r="E17" t="n">
-        <v>1152582</v>
+        <v>722273</v>
       </c>
     </row>
     <row r="18">
@@ -5701,16 +5701,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>83.7</v>
+        <v>84.2</v>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>18334279</v>
+        <v>10159343</v>
       </c>
       <c r="E18" t="n">
-        <v>3696996</v>
+        <v>1687229</v>
       </c>
     </row>
     <row r="19">
@@ -5720,16 +5720,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>86.40000000000001</v>
+        <v>80.8</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>5029749</v>
+        <v>5912791</v>
       </c>
       <c r="E19" t="n">
-        <v>1153072</v>
+        <v>898657</v>
       </c>
     </row>
     <row r="20">
@@ -5739,16 +5739,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>80.5</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>5523588</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>797287</v>
       </c>
     </row>
     <row r="21">
@@ -5758,16 +5758,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>78.8</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>5422918</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>840956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5777,16 +5777,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.2</v>
+        <v>81.3</v>
       </c>
       <c r="C22" t="n">
         <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>12022435</v>
+        <v>5508774</v>
       </c>
       <c r="E22" t="n">
-        <v>2855745</v>
+        <v>718706</v>
       </c>
     </row>
     <row r="23">
@@ -5796,16 +5796,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>75.90000000000001</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="C23" t="n">
         <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>4475704</v>
+        <v>7071832</v>
       </c>
       <c r="E23" t="n">
-        <v>1280003</v>
+        <v>979075</v>
       </c>
     </row>
     <row r="24">
@@ -5815,16 +5815,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>81.3</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>6790190</v>
+        <v>14046173</v>
       </c>
       <c r="E24" t="n">
-        <v>1493127</v>
+        <v>2816517</v>
       </c>
     </row>
     <row r="25">
@@ -5834,16 +5834,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.3</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>5988599</v>
+        <v>11906603</v>
       </c>
       <c r="E25" t="n">
-        <v>1127160</v>
+        <v>2798323</v>
       </c>
     </row>
     <row r="26">
@@ -5853,16 +5853,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>85.90000000000001</v>
+        <v>86.2</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>8434991</v>
+        <v>19823458</v>
       </c>
       <c r="E26" t="n">
-        <v>1398933</v>
+        <v>4967042</v>
       </c>
     </row>
     <row r="27">
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>78.5</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>7733107</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1232149</v>
       </c>
     </row>
     <row r="28">
@@ -5910,16 +5910,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>84.2</v>
+        <v>78.8</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>9295909</v>
+        <v>4038289</v>
       </c>
       <c r="E29" t="n">
-        <v>2106561</v>
+        <v>514748</v>
       </c>
     </row>
     <row r="30">
@@ -5929,16 +5929,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>77.2</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C30" t="n">
         <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>15490538</v>
+        <v>11251050</v>
       </c>
       <c r="E30" t="n">
-        <v>2171955</v>
+        <v>1350401</v>
       </c>
     </row>
     <row r="31">
@@ -5948,16 +5948,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>85.7</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>16705794</v>
+        <v>6609081</v>
       </c>
       <c r="E31" t="n">
-        <v>4270529</v>
+        <v>991385</v>
       </c>
     </row>
   </sheetData>
